--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:46:42+00:00</t>
+    <t>2025-09-09T11:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T11:37:38+00:00</t>
+    <t>2025-09-09T12:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T12:16:22+00:00</t>
+    <t>2025-09-09T13:04:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T13:04:37+00:00</t>
+    <t>2025-09-09T13:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T13:34:13+00:00</t>
+    <t>2025-09-09T14:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T14:23:20+00:00</t>
+    <t>2025-09-09T14:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T14:57:45+00:00</t>
+    <t>2025-09-10T09:33:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T09:33:16+00:00</t>
+    <t>2025-09-11T07:00:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T07:00:12+00:00</t>
+    <t>2025-09-11T08:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T08:38:26+00:00</t>
+    <t>2025-09-11T12:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T12:09:07+00:00</t>
+    <t>2025-09-11T15:07:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T15:07:27+00:00</t>
+    <t>2025-09-12T09:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T09:10:16+00:00</t>
+    <t>2025-09-12T15:50:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T15:50:13+00:00</t>
+    <t>2025-09-15T09:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T09:18:46+00:00</t>
+    <t>2025-09-15T09:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T09:57:11+00:00</t>
+    <t>2025-09-15T13:22:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T13:22:29+00:00</t>
+    <t>2025-09-15T13:48:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T13:48:13+00:00</t>
+    <t>2025-09-15T14:05:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:00+00:00</t>
+    <t>2025-09-15T14:56:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:56:21+00:00</t>
+    <t>2025-09-15T15:53:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:53:38+00:00</t>
+    <t>2025-09-16T14:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:59:04+00:00</t>
+    <t>2025-09-22T07:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T07:54:27+00:00</t>
+    <t>2025-09-22T08:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:48:37+00:00</t>
+    <t>2025-09-24T12:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:17:34+00:00</t>
+    <t>2025-09-24T13:27:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T13:27:33+00:00</t>
+    <t>2025-09-24T16:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/RedescenteLRM/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:03:10+00:00</t>
+    <t>2025-09-30T08:11:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
